--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zcmgyu/Desktop/VersionControl/ExcelDemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\VersionControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Bestライトプラン　ホーム  " sheetId="1" r:id="rId1"/>
@@ -17,23 +17,23 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>＜テスト票＞</t>
   </si>
@@ -292,23 +292,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>あdfsふぁs</t>
+    <t>adsfasdfas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="166" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -316,14 +321,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1097,7 +1102,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1127,7 +1132,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1160,7 +1165,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,7 +1321,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,7 +1361,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1398,6 +1403,63 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1421,12 +1483,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1434,65 +1490,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_テスト票_サービス系_正常系20031124" xfId="3"/>
+    <cellStyle name="標準_障害対応フロー0819" xfId="2"/>
     <cellStyle name="標準_総合テスト仕様書兼完了報告書（a-OMab-0303001-1）" xfId="1"/>
-    <cellStyle name="標準_障害対応フロー0819" xfId="2"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -2246,23 +2251,23 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" customWidth="1"/>
-    <col min="5" max="5" width="73.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
+    <col min="5" max="5" width="73.625" customWidth="1"/>
+    <col min="6" max="6" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="127"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2272,17 +2277,17 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="129"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="130"/>
+      <c r="K1" s="121"/>
       <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2302,13 +2307,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="str">
+    <row r="2" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A2" s="122" t="str">
         <f>[1]表紙!E3</f>
         <v>サービス名称</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8">
         <f>COUNTA(E7:E2112)-COUNTIF(E7:E2112,"*条件&gt;*")-COUNTIF(E7:E2112,"-")</f>
@@ -2318,20 +2323,20 @@
         <f>COUNTA(F8:F2112)-COUNTIF(F8:F2112,"*確認内容*")-COUNTIF(F7:F2112,"-")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="134">
+      <c r="G2" s="125">
         <f>COUNTIF(G8:G2112,"NG")</f>
         <v>0</v>
       </c>
-      <c r="H2" s="135"/>
+      <c r="H2" s="126"/>
       <c r="I2" s="8">
         <f>COUNTIFS(G8:G2112,"NG",J8:J2112,"OK")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="136">
+      <c r="J2" s="127">
         <f>F2-G2+I2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="137"/>
+      <c r="K2" s="128"/>
       <c r="L2" s="10">
         <f>SUMPRODUCT((L8:L2112&lt;&gt;"")/COUNTIF(L8:L2112,L8:L2112&amp;""))</f>
         <v>0</v>
@@ -2357,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -2376,7 +2381,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -2397,53 +2402,53 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="22"/>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="122" t="s">
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="120" t="s">
+      <c r="J5" s="140"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="120" t="s">
+      <c r="O5" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="138" t="s">
+      <c r="P5" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="139"/>
-    </row>
-    <row r="6" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="113"/>
+    </row>
+    <row r="6" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="101" t="s">
         <v>12</v>
       </c>
@@ -2462,14 +2467,14 @@
       <c r="K6" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-    </row>
-    <row r="7" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="115"/>
+    </row>
+    <row r="7" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="105">
         <v>1</v>
@@ -2492,34 +2497,34 @@
       <c r="P7" s="106"/>
       <c r="Q7" s="107"/>
     </row>
-    <row r="8" spans="1:17" s="21" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="21" customFormat="1" ht="49.5" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="108">
         <v>1</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
-    </row>
-    <row r="9" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="133"/>
+    </row>
+    <row r="9" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="30" t="str">
         <f t="shared" ref="B9:B64" si="0">B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E9))</f>
@@ -2542,10 +2547,10 @@
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="116"/>
-    </row>
-    <row r="10" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="134"/>
+      <c r="Q9" s="135"/>
+    </row>
+    <row r="10" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2569,7 +2574,7 @@
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
     </row>
-    <row r="11" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2593,14 +2598,16 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
     </row>
-    <row r="12" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>1-1-0</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -2615,7 +2622,7 @@
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
     </row>
-    <row r="13" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2637,7 +2644,7 @@
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2659,7 +2666,7 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2681,7 +2688,7 @@
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2703,7 +2710,7 @@
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2725,7 +2732,7 @@
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2747,7 +2754,7 @@
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2769,7 +2776,7 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
     </row>
-    <row r="20" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2791,7 +2798,7 @@
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
     </row>
-    <row r="21" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2813,7 +2820,7 @@
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
     </row>
-    <row r="22" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2835,7 +2842,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2857,7 +2864,7 @@
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2879,7 +2886,7 @@
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
     </row>
-    <row r="25" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A25" s="42"/>
       <c r="B25" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2901,7 +2908,7 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2923,7 +2930,7 @@
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
     </row>
-    <row r="27" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2945,7 +2952,7 @@
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2969,7 +2976,7 @@
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2991,7 +2998,7 @@
       <c r="P29" s="33"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3013,7 +3020,7 @@
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3035,7 +3042,7 @@
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3057,7 +3064,7 @@
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3079,7 +3086,7 @@
       <c r="P33" s="33"/>
       <c r="Q33" s="33"/>
     </row>
-    <row r="34" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A34" s="42"/>
       <c r="B34" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3101,7 +3108,7 @@
       <c r="P34" s="33"/>
       <c r="Q34" s="33"/>
     </row>
-    <row r="35" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3123,7 +3130,7 @@
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
     </row>
-    <row r="36" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A36" s="52"/>
       <c r="B36" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3145,7 +3152,7 @@
       <c r="P36" s="55"/>
       <c r="Q36" s="55"/>
     </row>
-    <row r="37" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A37" s="52"/>
       <c r="B37" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3167,7 +3174,7 @@
       <c r="P37" s="55"/>
       <c r="Q37" s="55"/>
     </row>
-    <row r="38" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A38" s="42"/>
       <c r="B38" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3189,7 +3196,7 @@
       <c r="P38" s="33"/>
       <c r="Q38" s="33"/>
     </row>
-    <row r="39" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A39" s="52"/>
       <c r="B39" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3211,7 +3218,7 @@
       <c r="P39" s="55"/>
       <c r="Q39" s="55"/>
     </row>
-    <row r="40" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A40" s="52"/>
       <c r="B40" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3233,7 +3240,7 @@
       <c r="P40" s="55"/>
       <c r="Q40" s="55"/>
     </row>
-    <row r="41" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A41" s="42"/>
       <c r="B41" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3255,7 +3262,7 @@
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
     </row>
-    <row r="42" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A42" s="52"/>
       <c r="B42" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3277,7 +3284,7 @@
       <c r="P42" s="55"/>
       <c r="Q42" s="55"/>
     </row>
-    <row r="43" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A43" s="52"/>
       <c r="B43" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3299,7 +3306,7 @@
       <c r="P43" s="55"/>
       <c r="Q43" s="55"/>
     </row>
-    <row r="44" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A44" s="42"/>
       <c r="B44" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3321,7 +3328,7 @@
       <c r="P44" s="33"/>
       <c r="Q44" s="33"/>
     </row>
-    <row r="45" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A45" s="52"/>
       <c r="B45" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3350,7 @@
       <c r="P45" s="55"/>
       <c r="Q45" s="55"/>
     </row>
-    <row r="46" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A46" s="52"/>
       <c r="B46" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3365,7 +3372,7 @@
       <c r="P46" s="55"/>
       <c r="Q46" s="55"/>
     </row>
-    <row r="47" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A47" s="42"/>
       <c r="B47" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3387,7 +3394,7 @@
       <c r="P47" s="33"/>
       <c r="Q47" s="33"/>
     </row>
-    <row r="48" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A48" s="52"/>
       <c r="B48" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3409,7 +3416,7 @@
       <c r="P48" s="55"/>
       <c r="Q48" s="55"/>
     </row>
-    <row r="49" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A49" s="52"/>
       <c r="B49" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3431,7 +3438,7 @@
       <c r="P49" s="55"/>
       <c r="Q49" s="55"/>
     </row>
-    <row r="50" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A50" s="42"/>
       <c r="B50" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3453,7 +3460,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
     </row>
-    <row r="51" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A51" s="52"/>
       <c r="B51" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3477,7 +3484,7 @@
       <c r="P51" s="55"/>
       <c r="Q51" s="55"/>
     </row>
-    <row r="52" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A52" s="52"/>
       <c r="B52" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3499,7 +3506,7 @@
       <c r="P52" s="55"/>
       <c r="Q52" s="55"/>
     </row>
-    <row r="53" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3521,7 +3528,7 @@
       <c r="P53" s="55"/>
       <c r="Q53" s="55"/>
     </row>
-    <row r="54" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A54" s="52"/>
       <c r="B54" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3543,7 +3550,7 @@
       <c r="P54" s="55"/>
       <c r="Q54" s="55"/>
     </row>
-    <row r="55" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A55" s="52"/>
       <c r="B55" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3565,7 +3572,7 @@
       <c r="P55" s="55"/>
       <c r="Q55" s="55"/>
     </row>
-    <row r="56" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A56" s="52"/>
       <c r="B56" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3587,7 +3594,7 @@
       <c r="P56" s="55"/>
       <c r="Q56" s="55"/>
     </row>
-    <row r="57" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A57" s="52"/>
       <c r="B57" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3609,7 +3616,7 @@
       <c r="P57" s="55"/>
       <c r="Q57" s="55"/>
     </row>
-    <row r="58" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A58" s="70"/>
       <c r="B58" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3633,7 +3640,7 @@
       <c r="P58" s="54"/>
       <c r="Q58" s="54"/>
     </row>
-    <row r="59" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A59" s="70"/>
       <c r="B59" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3655,7 +3662,7 @@
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
     </row>
-    <row r="60" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A60" s="70"/>
       <c r="B60" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3677,7 +3684,7 @@
       <c r="P60" s="54"/>
       <c r="Q60" s="54"/>
     </row>
-    <row r="61" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A61" s="70"/>
       <c r="B61" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3699,7 +3706,7 @@
       <c r="P61" s="54"/>
       <c r="Q61" s="54"/>
     </row>
-    <row r="62" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A62" s="70"/>
       <c r="B62" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3723,7 +3730,7 @@
       <c r="P62" s="54"/>
       <c r="Q62" s="54"/>
     </row>
-    <row r="63" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A63" s="70"/>
       <c r="B63" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3745,7 +3752,7 @@
       <c r="P63" s="54"/>
       <c r="Q63" s="54"/>
     </row>
-    <row r="64" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A64" s="70"/>
       <c r="B64" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3767,7 +3774,7 @@
       <c r="P64" s="54"/>
       <c r="Q64" s="54"/>
     </row>
-    <row r="65" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A65" s="70"/>
       <c r="B65" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E65))</f>
@@ -3789,7 +3796,7 @@
       <c r="P65" s="54"/>
       <c r="Q65" s="54"/>
     </row>
-    <row r="66" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A66" s="70"/>
       <c r="B66" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E66))</f>
@@ -3813,7 +3820,7 @@
       <c r="P66" s="54"/>
       <c r="Q66" s="54"/>
     </row>
-    <row r="67" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A67" s="70"/>
       <c r="B67" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E67))</f>
@@ -3835,7 +3842,7 @@
       <c r="P67" s="54"/>
       <c r="Q67" s="54"/>
     </row>
-    <row r="68" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A68" s="70"/>
       <c r="B68" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E68))</f>
@@ -3857,7 +3864,7 @@
       <c r="P68" s="54"/>
       <c r="Q68" s="54"/>
     </row>
-    <row r="69" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A69" s="70"/>
       <c r="B69" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E69))</f>
@@ -3879,7 +3886,7 @@
       <c r="P69" s="54"/>
       <c r="Q69" s="54"/>
     </row>
-    <row r="70" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A70" s="70"/>
       <c r="B70" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E70))</f>
@@ -3903,7 +3910,7 @@
       <c r="P70" s="54"/>
       <c r="Q70" s="54"/>
     </row>
-    <row r="71" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A71" s="70"/>
       <c r="B71" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E71))</f>
@@ -3925,7 +3932,7 @@
       <c r="P71" s="54"/>
       <c r="Q71" s="54"/>
     </row>
-    <row r="72" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A72" s="70"/>
       <c r="B72" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E72))</f>
@@ -3947,7 +3954,7 @@
       <c r="P72" s="54"/>
       <c r="Q72" s="54"/>
     </row>
-    <row r="73" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A73" s="70"/>
       <c r="B73" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E73))</f>
@@ -3969,7 +3976,7 @@
       <c r="P73" s="54"/>
       <c r="Q73" s="54"/>
     </row>
-    <row r="74" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A74" s="70"/>
       <c r="B74" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E74))</f>
@@ -3993,7 +4000,7 @@
       <c r="P74" s="54"/>
       <c r="Q74" s="54"/>
     </row>
-    <row r="75" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A75" s="70"/>
       <c r="B75" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E75))</f>
@@ -4015,7 +4022,7 @@
       <c r="P75" s="54"/>
       <c r="Q75" s="54"/>
     </row>
-    <row r="76" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A76" s="70"/>
       <c r="B76" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E76))</f>
@@ -4037,7 +4044,7 @@
       <c r="P76" s="54"/>
       <c r="Q76" s="54"/>
     </row>
-    <row r="77" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A77" s="70"/>
       <c r="B77" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E77))</f>
@@ -4059,7 +4066,7 @@
       <c r="P77" s="54"/>
       <c r="Q77" s="54"/>
     </row>
-    <row r="78" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A78" s="70"/>
       <c r="B78" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E78))</f>
@@ -4083,7 +4090,7 @@
       <c r="P78" s="54"/>
       <c r="Q78" s="54"/>
     </row>
-    <row r="79" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A79" s="70"/>
       <c r="B79" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E79))</f>
@@ -4105,7 +4112,7 @@
       <c r="P79" s="54"/>
       <c r="Q79" s="54"/>
     </row>
-    <row r="80" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A80" s="70"/>
       <c r="B80" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E80))</f>
@@ -4127,7 +4134,7 @@
       <c r="P80" s="54"/>
       <c r="Q80" s="54"/>
     </row>
-    <row r="81" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A81" s="70"/>
       <c r="B81" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E81))</f>
@@ -4151,7 +4158,7 @@
       <c r="P81" s="54"/>
       <c r="Q81" s="54"/>
     </row>
-    <row r="82" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A82" s="70"/>
       <c r="B82" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E82))</f>
@@ -4173,7 +4180,7 @@
       <c r="P82" s="54"/>
       <c r="Q82" s="54"/>
     </row>
-    <row r="83" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A83" s="70"/>
       <c r="B83" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E83))</f>
@@ -4197,7 +4204,7 @@
       <c r="P83" s="54"/>
       <c r="Q83" s="54"/>
     </row>
-    <row r="84" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A84" s="70"/>
       <c r="B84" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E84))</f>
@@ -4219,7 +4226,7 @@
       <c r="P84" s="54"/>
       <c r="Q84" s="54"/>
     </row>
-    <row r="85" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A85" s="52"/>
       <c r="B85" s="82" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E85))</f>
@@ -4243,7 +4250,7 @@
       <c r="P85" s="55"/>
       <c r="Q85" s="55"/>
     </row>
-    <row r="86" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A86" s="52"/>
       <c r="B86" s="82" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E86))</f>
@@ -4267,7 +4274,7 @@
       <c r="P86" s="55"/>
       <c r="Q86" s="55"/>
     </row>
-    <row r="87" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A87" s="52"/>
       <c r="B87" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E87))</f>
@@ -4289,7 +4296,7 @@
       <c r="P87" s="55"/>
       <c r="Q87" s="55"/>
     </row>
-    <row r="88" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A88" s="52"/>
       <c r="B88" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E88))</f>
@@ -4313,7 +4320,7 @@
       <c r="P88" s="55"/>
       <c r="Q88" s="55"/>
     </row>
-    <row r="89" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A89" s="52"/>
       <c r="B89" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E89))</f>
@@ -4335,7 +4342,7 @@
       <c r="P89" s="55"/>
       <c r="Q89" s="55"/>
     </row>
-    <row r="90" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A90" s="52"/>
       <c r="B90" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E90))</f>
@@ -4357,7 +4364,7 @@
       <c r="P90" s="55"/>
       <c r="Q90" s="55"/>
     </row>
-    <row r="91" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A91" s="52"/>
       <c r="B91" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E91))</f>
@@ -4379,7 +4386,7 @@
       <c r="P91" s="55"/>
       <c r="Q91" s="55"/>
     </row>
-    <row r="92" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A92" s="52"/>
       <c r="B92" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E92))</f>
@@ -4401,7 +4408,7 @@
       <c r="P92" s="55"/>
       <c r="Q92" s="55"/>
     </row>
-    <row r="93" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A93" s="52"/>
       <c r="B93" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E93))</f>
@@ -4423,7 +4430,7 @@
       <c r="P93" s="55"/>
       <c r="Q93" s="55"/>
     </row>
-    <row r="94" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A94" s="52"/>
       <c r="B94" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E94))</f>
@@ -4445,7 +4452,7 @@
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
     </row>
-    <row r="95" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A95" s="52"/>
       <c r="B95" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E95))</f>
@@ -4467,7 +4474,7 @@
       <c r="P95" s="55"/>
       <c r="Q95" s="55"/>
     </row>
-    <row r="96" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A96" s="52"/>
       <c r="B96" s="30" t="str">
         <f>B$7&amp;"-"&amp;B$8&amp;"-"&amp;(COUNTA(E$9:E96))</f>
@@ -4489,7 +4496,7 @@
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
     </row>
-    <row r="97" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A97" s="24"/>
       <c r="B97" s="25">
         <v>2</v>
@@ -4512,7 +4519,7 @@
       <c r="P97" s="26"/>
       <c r="Q97" s="27"/>
     </row>
-    <row r="98" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A98" s="24"/>
       <c r="B98" s="28">
         <v>1</v>
@@ -4522,22 +4529,22 @@
       </c>
       <c r="D98" s="88"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="117" t="s">
+      <c r="F98" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="G98" s="118"/>
-      <c r="H98" s="118"/>
-      <c r="I98" s="118"/>
-      <c r="J98" s="118"/>
-      <c r="K98" s="118"/>
-      <c r="L98" s="118"/>
-      <c r="M98" s="118"/>
-      <c r="N98" s="118"/>
-      <c r="O98" s="118"/>
-      <c r="P98" s="118"/>
-      <c r="Q98" s="119"/>
-    </row>
-    <row r="99" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="137"/>
+      <c r="H98" s="137"/>
+      <c r="I98" s="137"/>
+      <c r="J98" s="137"/>
+      <c r="K98" s="137"/>
+      <c r="L98" s="137"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="137"/>
+      <c r="O98" s="137"/>
+      <c r="P98" s="137"/>
+      <c r="Q98" s="138"/>
+    </row>
+    <row r="99" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A99" s="70"/>
       <c r="B99" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E99))</f>
@@ -4561,7 +4568,7 @@
       <c r="P99" s="54"/>
       <c r="Q99" s="54"/>
     </row>
-    <row r="100" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A100" s="70"/>
       <c r="B100" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E100))</f>
@@ -4583,7 +4590,7 @@
       <c r="P100" s="54"/>
       <c r="Q100" s="54"/>
     </row>
-    <row r="101" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A101" s="70"/>
       <c r="B101" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E101))</f>
@@ -4605,7 +4612,7 @@
       <c r="P101" s="54"/>
       <c r="Q101" s="54"/>
     </row>
-    <row r="102" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A102" s="70"/>
       <c r="B102" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E102))</f>
@@ -4629,7 +4636,7 @@
       <c r="P102" s="54"/>
       <c r="Q102" s="54"/>
     </row>
-    <row r="103" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A103" s="70"/>
       <c r="B103" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E103))</f>
@@ -4651,7 +4658,7 @@
       <c r="P103" s="54"/>
       <c r="Q103" s="54"/>
     </row>
-    <row r="104" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A104" s="70"/>
       <c r="B104" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E104))</f>
@@ -4673,7 +4680,7 @@
       <c r="P104" s="54"/>
       <c r="Q104" s="54"/>
     </row>
-    <row r="105" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A105" s="70"/>
       <c r="B105" s="54"/>
       <c r="C105" s="91"/>
@@ -4692,7 +4699,7 @@
       <c r="P105" s="54"/>
       <c r="Q105" s="54"/>
     </row>
-    <row r="106" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A106" s="70"/>
       <c r="B106" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E106))</f>
@@ -4714,7 +4721,7 @@
       <c r="P106" s="54"/>
       <c r="Q106" s="54"/>
     </row>
-    <row r="107" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A107" s="70"/>
       <c r="B107" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E107))</f>
@@ -4736,7 +4743,7 @@
       <c r="P107" s="54"/>
       <c r="Q107" s="54"/>
     </row>
-    <row r="108" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A108" s="70"/>
       <c r="B108" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E108))</f>
@@ -4758,7 +4765,7 @@
       <c r="P108" s="54"/>
       <c r="Q108" s="54"/>
     </row>
-    <row r="109" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A109" s="70"/>
       <c r="B109" s="54"/>
       <c r="C109" s="91"/>
@@ -4777,7 +4784,7 @@
       <c r="P109" s="54"/>
       <c r="Q109" s="54"/>
     </row>
-    <row r="110" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A110" s="70"/>
       <c r="B110" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E110))</f>
@@ -4799,7 +4806,7 @@
       <c r="P110" s="54"/>
       <c r="Q110" s="54"/>
     </row>
-    <row r="111" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A111" s="70"/>
       <c r="B111" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E111))</f>
@@ -4821,7 +4828,7 @@
       <c r="P111" s="54"/>
       <c r="Q111" s="54"/>
     </row>
-    <row r="112" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A112" s="70"/>
       <c r="B112" s="54"/>
       <c r="C112" s="91"/>
@@ -4840,7 +4847,7 @@
       <c r="P112" s="54"/>
       <c r="Q112" s="54"/>
     </row>
-    <row r="113" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A113" s="70"/>
       <c r="B113" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E113))</f>
@@ -4862,7 +4869,7 @@
       <c r="P113" s="54"/>
       <c r="Q113" s="54"/>
     </row>
-    <row r="114" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A114" s="70"/>
       <c r="B114" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E114))</f>
@@ -4884,7 +4891,7 @@
       <c r="P114" s="54"/>
       <c r="Q114" s="54"/>
     </row>
-    <row r="115" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A115" s="70"/>
       <c r="B115" s="54"/>
       <c r="C115" s="91"/>
@@ -4903,7 +4910,7 @@
       <c r="P115" s="54"/>
       <c r="Q115" s="54"/>
     </row>
-    <row r="116" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A116" s="70"/>
       <c r="B116" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E116))</f>
@@ -4925,7 +4932,7 @@
       <c r="P116" s="54"/>
       <c r="Q116" s="54"/>
     </row>
-    <row r="117" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A117" s="70"/>
       <c r="B117" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E117))</f>
@@ -4947,7 +4954,7 @@
       <c r="P117" s="54"/>
       <c r="Q117" s="54"/>
     </row>
-    <row r="118" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A118" s="70"/>
       <c r="B118" s="54"/>
       <c r="C118" s="91"/>
@@ -4966,7 +4973,7 @@
       <c r="P118" s="54"/>
       <c r="Q118" s="54"/>
     </row>
-    <row r="119" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A119" s="70"/>
       <c r="B119" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E119))</f>
@@ -4988,7 +4995,7 @@
       <c r="P119" s="54"/>
       <c r="Q119" s="54"/>
     </row>
-    <row r="120" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A120" s="70"/>
       <c r="B120" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E120))</f>
@@ -5010,7 +5017,7 @@
       <c r="P120" s="54"/>
       <c r="Q120" s="54"/>
     </row>
-    <row r="121" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A121" s="70"/>
       <c r="B121" s="54"/>
       <c r="C121" s="91"/>
@@ -5029,7 +5036,7 @@
       <c r="P121" s="54"/>
       <c r="Q121" s="54"/>
     </row>
-    <row r="122" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A122" s="70"/>
       <c r="B122" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E122))</f>
@@ -5051,7 +5058,7 @@
       <c r="P122" s="54"/>
       <c r="Q122" s="54"/>
     </row>
-    <row r="123" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A123" s="70"/>
       <c r="B123" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E123))</f>
@@ -5073,7 +5080,7 @@
       <c r="P123" s="54"/>
       <c r="Q123" s="54"/>
     </row>
-    <row r="124" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A124" s="70"/>
       <c r="B124" s="54"/>
       <c r="C124" s="91"/>
@@ -5092,7 +5099,7 @@
       <c r="P124" s="54"/>
       <c r="Q124" s="54"/>
     </row>
-    <row r="125" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A125" s="70"/>
       <c r="B125" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E125))</f>
@@ -5114,7 +5121,7 @@
       <c r="P125" s="54"/>
       <c r="Q125" s="54"/>
     </row>
-    <row r="126" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A126" s="70"/>
       <c r="B126" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E126))</f>
@@ -5136,7 +5143,7 @@
       <c r="P126" s="54"/>
       <c r="Q126" s="54"/>
     </row>
-    <row r="127" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A127" s="70"/>
       <c r="B127" s="54"/>
       <c r="C127" s="91"/>
@@ -5155,7 +5162,7 @@
       <c r="P127" s="54"/>
       <c r="Q127" s="54"/>
     </row>
-    <row r="128" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A128" s="70"/>
       <c r="B128" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E128))</f>
@@ -5177,7 +5184,7 @@
       <c r="P128" s="54"/>
       <c r="Q128" s="54"/>
     </row>
-    <row r="129" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A129" s="70"/>
       <c r="B129" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E129))</f>
@@ -5199,7 +5206,7 @@
       <c r="P129" s="54"/>
       <c r="Q129" s="54"/>
     </row>
-    <row r="130" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A130" s="70"/>
       <c r="B130" s="54"/>
       <c r="C130" s="91"/>
@@ -5218,7 +5225,7 @@
       <c r="P130" s="54"/>
       <c r="Q130" s="54"/>
     </row>
-    <row r="131" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A131" s="70"/>
       <c r="B131" s="54" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E131))</f>
@@ -5240,7 +5247,7 @@
       <c r="P131" s="54"/>
       <c r="Q131" s="54"/>
     </row>
-    <row r="132" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A132" s="70"/>
       <c r="B132" s="87" t="str">
         <f>B$97&amp;"-"&amp;B$98&amp;"-"&amp;(COUNTA(E$99:E132))</f>
@@ -5262,7 +5269,7 @@
       <c r="P132" s="87"/>
       <c r="Q132" s="87"/>
     </row>
-    <row r="133" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" s="21" customFormat="1" ht="26.25" customHeight="1">
       <c r="A133" s="93"/>
       <c r="B133" s="94"/>
       <c r="C133" s="95"/>
@@ -5283,17 +5290,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="P9:Q9"/>
@@ -5304,6 +5300,17 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E9 E48 E25 E36:E37 E39:E40 E94 E129 E110:E111 E85 E126 E123 E88:E91 E113">
